--- a/versions/v11/docs/mobile-attack-v11.3/mobile-attack-v11.3-matrices.xlsx
+++ b/versions/v11/docs/mobile-attack-v11.3/mobile-attack-v11.3-matrices.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="119">
   <si>
     <t>Initial Access</t>
   </si>
@@ -2024,7 +2024,7 @@
       <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -2060,9 +2060,11 @@
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="I5" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="2" t="s">
@@ -2084,9 +2086,11 @@
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="I6" s="2" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>64</v>
@@ -2109,11 +2113,11 @@
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>43</v>
+      <c r="H7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>73</v>
@@ -2132,9 +2136,11 @@
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="H8" s="5"/>
+      <c r="H8" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="I8" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>74</v>
@@ -2148,12 +2154,6 @@
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="H9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="L9" s="1" t="s">
         <v>75</v>
       </c>
@@ -2171,12 +2171,6 @@
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="H10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="O10" s="5"/>
       <c r="P10" s="2" t="s">
         <v>78</v>
@@ -2187,12 +2181,6 @@
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="H11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="O11" s="5" t="s">
         <v>86</v>
       </c>
@@ -2233,13 +2221,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="17">
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H7:H8"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="J1:K1"/>
